--- a/pred_ohlcv/54_21/2020-01-24 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 BCD ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>12639.59057786</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>14105.32307786</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>14178.42917786</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>14178.42917786</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>12178.42917786</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>12403.02917786</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>12403.02917786</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>12552.02917786</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>12552.02917786</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>12732.53937786</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>15465.29027786</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>15457.43697786</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>15756.50297786</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>15205.10297786</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>14937.63027786</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>14675.49487786</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>11934.89067786</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>12036.49307786</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>12061.74327786</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>12051.74327786</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>12276.81077786</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>12203.70467786</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>12254.30457786</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>12300.39407786</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>12113.52867786</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>11859.67047786</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>12037.59567786</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>11899.79567786</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>11562.16577786</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>11563.16577786</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>11399.33617786</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>11399.33617786</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>11193.89497786</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>10642.72967786</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>8007.10477786</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>8497.36917786</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>8497.36917786</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>8471.523677860001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>8756.269277860001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>9116.471977860001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>10333.13292317</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>10841.91142893</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>10382.01142893</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>10136.96862893</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>7646.752106390002</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>7970.188006390003</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>7940.095406390003</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>7569.095406390003</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>8947.116506390004</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>8888.788906390004</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>8586.403506390005</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>9139.848006390004</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>9850.610806390005</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>9850.610806390005</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9825.797306390004</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>9825.797306390004</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>9905.911306390004</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>9857.911306390004</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>10299.10430639</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>10447.96610639</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10447.96610639</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7662.869006390004</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>7669.518714600004</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>10905.85240639</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>9474.041606390005</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>7143.495906390004</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>7207.053306390004</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>6052.941206390004</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4197.382906390004</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4198.136006390004</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4198.136006390004</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4107.735406390004</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4107.735406390004</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4043.612006390004</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-936.9621936099961</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-907.9621936099961</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-54361.64214782999</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-53951.65284782999</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-58562.76774782999</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-58558.97964782999</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-57902.82237897999</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-57902.82237897999</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-57902.82237897999</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-57925.30707897999</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-60344.07587897999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-60344.07587897999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-60344.07587897999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-58763.65643719999</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-58621.81473719999</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-58621.81473719999</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-58621.81473719999</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-59391.8146372</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-68009.18933719999</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-66416.84623719999</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-63006.7240372</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-61227.2240372</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-61227.2240372</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-61227.2240372</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-61303.7240372</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-61086.6399372</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-62207.4911372</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-61866.7033372</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-66410.2045372</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-66410.2045372</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-66293.9984372</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-73304.72424898001</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-73632.83724898001</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-75468.79330276001</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-85256.50526649</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-84937.40956648999</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-84348.86376648999</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-77498.13453711999</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-77957.10323711998</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-79647.15393711999</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-79867.91473711999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-79867.91473711999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-80193.04273711999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-82904.91913711998</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-82935.16873711998</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-82883.15313711998</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-84045.10883711997</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-84839.17393711997</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-85225.47773711996</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-85225.47773711996</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-83215.47773711996</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-84521.47913711995</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-84521.47913711995</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-86101.86977695995</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-86101.86977695995</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-86101.86977695995</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-85235.88517695996</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-84485.88517695996</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-84994.32907695996</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-84262.61937695995</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-84757.35327695996</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-86180.65707695995</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-86889.80520158994</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-89611.05030158994</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-96825.59400158993</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-104468.2348015899</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-101689.9136015899</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-101664.9136015899</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-103366.6606015899</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-83941.2065015899</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-85379.39450158989</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-87339.89040158989</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-87339.89040158989</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 BCD ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>12639.59057786</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>14105.32307786</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>14178.42917786</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>14178.42917786</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>12178.42917786</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>12403.02917786</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>12403.02917786</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>12552.02917786</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>12552.02917786</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>12732.53937786</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>15465.29027786</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>15457.43697786</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>15756.50297786</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>15205.10297786</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>14937.63027786</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>14675.49487786</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>11934.89067786</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>12036.49307786</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>12061.74327786</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>12051.74327786</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>12276.81077786</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>12203.70467786</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>12254.30457786</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>12300.39407786</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>11968.67047786</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>12037.59567786</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>11899.79567786</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>11562.16577786</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>11563.16577786</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>11399.33617786</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>11399.33617786</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>11193.89497786</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>10642.72967786</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>8007.10477786</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>7646.752106390002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>7970.188006390003</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>7940.095406390003</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>7569.095406390003</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>8888.788906390004</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>8586.403506390005</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>9139.848006390004</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>9850.610806390005</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>9850.610806390005</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9825.797306390004</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>9825.797306390004</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>9905.911306390004</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>9857.911306390004</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>10299.10430639</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>10447.96610639</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10447.96610639</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7665.268606390004</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7662.869006390004</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>7669.518714600004</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>10905.85240639</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>11494.59880639</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>9474.041606390005</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>7143.495906390004</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>7207.053306390004</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>6052.941206390004</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6197.382906390004</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4197.382906390004</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4198.136006390004</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4198.136006390004</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4107.735406390004</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4107.735406390004</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4043.612006390004</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-936.9621936099961</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-988.0761936099962</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1009.285893609996</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2267.396393609996</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-54361.64214782999</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-53951.65284782999</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-58562.76774782999</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-58558.97964782999</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-58231.88154782999</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-57902.82237897999</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-57902.82237897999</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-57902.82237897999</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-57925.30707897999</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-60344.07587897999</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-60344.07587897999</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-60344.07587897999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-58763.65643719999</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-58621.81473719999</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-58621.81473719999</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-58621.81473719999</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-59391.8146372</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-68009.18933719999</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-66416.84623719999</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-63006.7240372</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-61227.2240372</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-61227.2240372</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-61227.2240372</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-61303.7240372</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-61086.6399372</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-62207.4911372</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-61866.7033372</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-66410.2045372</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-66410.2045372</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-66293.9984372</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-73304.72424898001</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-73632.83724898001</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-75468.79330276001</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-85256.50526649</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-84937.40956648999</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-84348.86376648999</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-77498.13453711999</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-77957.10323711998</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-79647.15393711999</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-79867.91473711999</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-79867.91473711999</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-80193.04273711999</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-82904.91913711998</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-82935.16873711998</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-82883.15313711998</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-84045.10883711997</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-84839.17393711997</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-85225.47773711996</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-85225.47773711996</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-83215.47773711996</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-84521.47913711995</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-84521.47913711995</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-86101.86977695995</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-86101.86977695995</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-86101.86977695995</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-85235.88517695996</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-84485.88517695996</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-84994.32907695996</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-84262.61937695995</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-84757.35327695996</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-86180.65707695995</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-86889.80520158994</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-89611.05030158994</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-96825.59400158993</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-104468.2348015899</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-101689.9136015899</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-101664.9136015899</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-103366.6606015899</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-83941.2065015899</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-85379.39450158989</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
